--- a/biology/Zoologie/Émyde_réticulée/Émyde_réticulée.xlsx
+++ b/biology/Zoologie/Émyde_réticulée/Émyde_réticulée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89myde_r%C3%A9ticul%C3%A9e</t>
+          <t>Émyde_réticulée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deirochelys reticularia
-L'Émyde réticulée, Deirochelys reticularia, unique représentant du genre Deirochelys, est une espèce de tortues de la famille des Emydidae[1].
+L'Émyde réticulée, Deirochelys reticularia, unique représentant du genre Deirochelys, est une espèce de tortues de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89myde_r%C3%A9ticul%C3%A9e</t>
+          <t>Émyde_réticulée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique des États-Unis[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique des États-Unis :
 Deirochelys reticularia reticularia se rencontre en Virginie, en Caroline du Nord, en Caroline du Sud, en Géorgie, en Floride, en Alabama, au Mississippi et en Louisiane ;
 Deirochelys reticularia chrysea se rencontre en Floride ;
 Deirochelys reticularia miariase rencontre en Arkansas, en Louisiane, au Mississippi, au Missouri, en Oklahoma et au Texas.</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89myde_r%C3%A9ticul%C3%A9e</t>
+          <t>Émyde_réticulée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deirochelys reticularia peut atteindre 25 cm.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89myde_r%C3%A9ticul%C3%A9e</t>
+          <t>Émyde_réticulée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (27 mai 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (27 mai 2011) :
 Deirochelys reticularia chrysea Schwartz, 1956
 Deirochelys reticularia miaria Schwartz, 1956
 Deirochelys reticularia reticularia (Latreille, 1801)</t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89myde_r%C3%A9ticul%C3%A9e</t>
+          <t>Émyde_réticulée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agassiz, 1857 : Contributions to the Natural History of the United States of America. Little, Brown &amp; Co., Boston, vol. 1, p. 1-452 (texte intégral).
 Schwartz, 1956 : Geographic variation in the chicken turtle Deirochelys reticularia Latreille. Fieldiana Zoology, vol. 34, n. 41, p. 461–503 (texte intégral).
